--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s1_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.5208472839716</v>
+        <v>841.4728792860781</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.86084728397254</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.196558216847439</v>
+        <v>7.549255196917892</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.196558216847439</v>
+        <v>7.20453102425245</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.3199999999991</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.34</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -885,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.75054662682655</v>
+        <v>40.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -909,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>17.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.58460255878718</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -941,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38.43623761108917</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,15 +1031,99 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>202.86</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>203.34</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>217.055</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>207.51</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>199.0450000000008</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.0600000000001</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9450000000001</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>131.3150000000001</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>141.15</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>142.69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>221.13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>219.485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>224.12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>225.435</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>221.13</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>219.485</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>206.225</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>224.12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>225.435</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1483,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>202.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>203.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>217.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>207.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>199.0450000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.485</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.225000000000001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>24.12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.435</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1684,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2.860000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3.339999999999549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.05500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.509999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1940,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1995,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2006,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2017,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2039,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2124,10 +2252,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2152,28 +2280,6 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
